--- a/support_files/advanced_bio.xlsx
+++ b/support_files/advanced_bio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshpopp/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshpopp/Downloads/ppfproj/support_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A04EB8C7-47FC-1D46-BE45-A590629F4C06}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565ADE5B-EDFF-6E4E-ADC7-7C3B21DEAE3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16680" yWindow="460" windowWidth="24680" windowHeight="15000" xr2:uid="{31035754-3324-9B4A-9A0D-CC81F2842094}"/>
+    <workbookView xWindow="11700" yWindow="720" windowWidth="25000" windowHeight="15540" xr2:uid="{31035754-3324-9B4A-9A0D-CC81F2842094}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>BIOAP3110</t>
   </si>
@@ -106,6 +106,12 @@
   </si>
   <si>
     <t>Courses</t>
+  </si>
+  <si>
+    <t>BIOMI2500</t>
+  </si>
+  <si>
+    <t>BIOMS3310</t>
   </si>
 </sst>
 </file>
@@ -466,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F8F417A-8BED-BD45-8A33-2FD66B5BEC3F}">
-  <dimension ref="A1:A25"/>
+  <dimension ref="A1:A27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -599,6 +605,16 @@
         <v>23</v>
       </c>
     </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
